--- a/.venv/Scripts/dane_uzytkownika.xlsx
+++ b/.venv/Scripts/dane_uzytkownika.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="C3" t="n">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="C4" t="n">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="C6" t="n">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="C7" t="n">
-        <v>257</v>
+        <v>374</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C8" t="n">
-        <v>199</v>
+        <v>349</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="C9" t="n">
-        <v>91</v>
+        <v>346</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,209 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="D10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>312</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" t="n">
+        <v>259</v>
+      </c>
+      <c r="D12" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>94</v>
+      </c>
+      <c r="C13" t="n">
+        <v>273</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>119</v>
+      </c>
+      <c r="C14" t="n">
+        <v>195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>71</v>
+      </c>
+      <c r="C15" t="n">
+        <v>154</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="n">
+        <v>152</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>74</v>
+      </c>
+      <c r="C17" t="n">
+        <v>83</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>121</v>
+      </c>
+      <c r="C18" t="n">
+        <v>55</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>187</v>
+      </c>
+      <c r="C19" t="n">
+        <v>61</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>310</v>
+      </c>
+      <c r="C20" t="n">
+        <v>79</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>367</v>
+      </c>
+      <c r="C21" t="n">
+        <v>179</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>345</v>
+      </c>
+      <c r="C22" t="n">
+        <v>253</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>314</v>
+      </c>
+      <c r="C23" t="n">
+        <v>134</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>265</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
